--- a/Go/results go.xlsx
+++ b/Go/results go.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26b9e042c62e9efe/Documents/Uni/Year 4/DPT/DPT-coursework/Go/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxkb\OneDrive\Documents\Uni\Year 4\DPT\DPT-coursework\Go\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AAD3466C-55BE-4563-A2DA-9423CF68B2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:40009_{AAD3466C-55BE-4563-A2DA-9423CF68B2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40786C01-12EE-4D4B-9BA2-F6DF1AD32E2D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results go" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
+    <sheet name="Speedups" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="31">
   <si>
     <t>dataset</t>
   </si>
@@ -60,11 +70,65 @@
   <si>
     <t>Sum of Totients between 1 and 60000 is 1094261505</t>
   </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>Elapsed time: 15.222714s</t>
+  </si>
+  <si>
+    <t>C: Sum of Totients  between [1..15000] is 68394315</t>
+  </si>
+  <si>
+    <t>Elapsed time: 15.219649s</t>
+  </si>
+  <si>
+    <t>Elapsed time: 15.522108s</t>
+  </si>
+  <si>
+    <t>Elapsed time: 65.678625s</t>
+  </si>
+  <si>
+    <t>C: Sum of Totients  between [1..30000] is 273571773</t>
+  </si>
+  <si>
+    <t>Elapsed time: 65.688663s</t>
+  </si>
+  <si>
+    <t>Elapsed time: 67.366016s</t>
+  </si>
+  <si>
+    <t>C: Sum of Totients  between [1..60000] is 1094277505</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Dataset 1</t>
+  </si>
+  <si>
+    <t>Dataset 2</t>
+  </si>
+  <si>
+    <t>Dataset 3</t>
+  </si>
+  <si>
+    <t>Sequential Go</t>
+  </si>
+  <si>
+    <t>Sequential OpenMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,6 +681,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DS1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Go vs OpenMP Execution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -655,9 +749,22 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -677,114 +784,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'results go'!$B$5:$B$34</c:f>
+              <c:f>Graphs!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
@@ -792,99 +825,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'results go'!$C$5:$C$34</c:f>
+              <c:f>Graphs!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.531147438000001</c:v>
+                  <c:v>16.229197783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.227355381999999</c:v>
+                  <c:v>12.442433862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.229197783</c:v>
+                  <c:v>7.4784881739999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.442433862</c:v>
+                  <c:v>4.1473177049999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.668436041</c:v>
+                  <c:v>2.887656872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.432236909</c:v>
+                  <c:v>2.2014176399999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5633049960000003</c:v>
+                  <c:v>1.6286649900000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4784881739999998</c:v>
+                  <c:v>1.2708245359999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4740640530000002</c:v>
+                  <c:v>0.98269194800000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1473177049999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1581655660000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.1387071090000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9218297039999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.887656872</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.885790439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.2014176399999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2202067080000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2014986799999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6286649900000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6408536090000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5873334939999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2708245359999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.263024081</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.278537469</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.98269194800000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.98762514599999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.98248953400000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.93749921700000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>0.87803492000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.86187885600000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +865,130 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2128-4F12-A758-14B981F31F85}"/>
+              <c16:uniqueId val="{00000000-39D5-4B8F-9CE3-4232313EA1E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39D5-4B8F-9CE3-4232313EA1E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -904,11 +1000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="670372600"/>
-        <c:axId val="670367800"/>
+        <c:axId val="774769360"/>
+        <c:axId val="774769680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="670372600"/>
+        <c:axId val="774769360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,6 +1024,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -965,12 +1121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670367800"/>
+        <c:crossAx val="774769680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="670367800"/>
+        <c:axId val="774769680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,6 +1146,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Median</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1027,7 +1243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670372600"/>
+        <c:crossAx val="774769360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1039,6 +1255,3148 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DS2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Go vs OpenMP Execution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69.294019246000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.031266256999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.789716234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.683234696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.311310903000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4073229400000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6996828329999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3235568109999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.303559549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8173201890000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9412-4402-8044-17A977A41EBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.978000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.716000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.547000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8219999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4289999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9412-4402-8044-17A977A41EBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="774769360"/>
+        <c:axId val="774769680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="774769360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774769680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="774769680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Median</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774769360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DS3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Go vs OpenMP Execution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>74.895381377000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.819025893000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.332250948999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.643024022000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-202D-4DB5-875F-7C762392A130}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70.477999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.503999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.782999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-202D-4DB5-875F-7C762392A130}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="774769360"/>
+        <c:axId val="774769680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="774769360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774769680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="774769680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Median</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774769360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DS1 Go</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs C+OpenMP Absolute Speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98072570344002685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2792024123680248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1282899754171622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8377555191422212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5118707372514999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2300644470169688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7726613574471184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.524460270571925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.19672517353322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.127287479636912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE25-4E92-84EE-126591579FF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0028138339920949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3046549537195751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1678601538023354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.90326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6380422222222215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6795585783238263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.63038687150838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.714156756756756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.95179732739421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.51911678832117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE25-4E92-84EE-126591579FF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="837405264"/>
+        <c:axId val="837405584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="837405264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837405584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="837405584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837405264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DS2 Go</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs C+OpenMP Absolute Speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98445467874830794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.286350982558248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1458770173934485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8577117042636355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5409876327123735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2514595162818978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.182097146448605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.814143603209875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.85125538040975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.870343088477036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D74-4B3E-9396-00AA1E992D26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.91609599051670043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1734728464754012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0997526850786348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9296879038047381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6888077422707202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4460057810020412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.620640743734844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.530105664263646</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.119797498045347</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.15679877515311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D74-4B3E-9396-00AA1E992D26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="837405264"/>
+        <c:axId val="837405584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="837405264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837405584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="837405584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837405264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DS3 Go</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs C+OpenMP Absolute Speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$M$3:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9326943478313332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3969826336655533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.189026206656926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.828881334310079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03AA-4F03-B1A4-73F2007B51A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9527370243196462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4280343430034135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.386238047186584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.844686464181834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03AA-4F03-B1A4-73F2007B51A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="837405264"/>
+        <c:axId val="837405584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="837405264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837405584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="837405584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837405264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1116,6 +4474,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1632,27 +5190,2607 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>149224</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>545306</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>101599</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>126207</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73830785-43E5-4E5B-9A22-3489C3F645BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962D760B-9A62-4225-9E20-338633D22F33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,6 +7803,199 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A0A942-220A-4A35-8FE1-0FFCD703DABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3871BD6A-3675-47B9-9356-ED325FCE03EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADFD0FE-5590-42A6-A9D9-DA567B31E8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC9E13D-4B30-4E6E-8406-5C77F9C55591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180657</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE584245-4EA5-4D43-A1C2-5DD9A54507CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1969,19 +8300,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView topLeftCell="A3" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1994,8 +8328,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2008,8 +8354,20 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2022,8 +8380,20 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2036,8 +8406,20 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2050,8 +8432,20 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>15.18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2064,8 +8458,20 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>15.182</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2078,8 +8484,20 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>15.175000000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2092,8 +8510,20 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>11.694000000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2106,8 +8536,20 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>11.667999999999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2120,8 +8562,20 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>11.654</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2134,8 +8588,20 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>7.032</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2148,8 +8614,20 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>7.0090000000000003</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2162,8 +8640,20 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>7.0220000000000002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2176,8 +8666,20 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2190,8 +8692,20 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>3.911</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2204,8 +8718,20 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>3.899</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2218,8 +8744,20 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2232,8 +8770,20 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>2.7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2246,8 +8796,20 @@
       <c r="D19" t="s">
         <v>7</v>
       </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2260,8 +8822,20 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2274,8 +8848,20 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2288,8 +8874,20 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>2.1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2302,8 +8900,20 @@
       <c r="D23" t="s">
         <v>7</v>
       </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>1.429</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2316,8 +8926,20 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2330,8 +8952,20 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2344,8 +8978,20 @@
       <c r="D26" t="s">
         <v>7</v>
       </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2358,8 +9004,20 @@
       <c r="D27" t="s">
         <v>7</v>
       </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2372,8 +9030,20 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2386,8 +9056,20 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>48</v>
+      </c>
+      <c r="H29">
+        <v>0.873</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2400,8 +9082,20 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>48</v>
+      </c>
+      <c r="H30">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2414,8 +9108,20 @@
       <c r="D31" t="s">
         <v>7</v>
       </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2428,8 +9134,20 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>64</v>
+      </c>
+      <c r="H32">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2442,8 +9160,20 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>64</v>
+      </c>
+      <c r="H33">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2456,8 +9186,20 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>64</v>
+      </c>
+      <c r="H34">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2470,8 +9212,20 @@
       <c r="D35" t="s">
         <v>9</v>
       </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2484,8 +9238,20 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2498,8 +9264,20 @@
       <c r="D37" t="s">
         <v>9</v>
       </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2512,8 +9290,20 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>65.778999999999996</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2526,8 +9316,20 @@
       <c r="D39" t="s">
         <v>10</v>
       </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>71.704999999999998</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2540,8 +9342,20 @@
       <c r="D40" t="s">
         <v>10</v>
       </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>71.807000000000002</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2554,8 +9368,20 @@
       <c r="D41" t="s">
         <v>10</v>
       </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>57.768999999999998</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2568,8 +9394,20 @@
       <c r="D42" t="s">
         <v>10</v>
       </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>53.670999999999999</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2582,8 +9420,20 @@
       <c r="D43" t="s">
         <v>10</v>
       </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>55.978000000000002</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2596,8 +9446,20 @@
       <c r="D44" t="s">
         <v>10</v>
       </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>35.904000000000003</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2610,8 +9472,20 @@
       <c r="D45" t="s">
         <v>10</v>
       </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>31.283999999999999</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2624,8 +9498,20 @@
       <c r="D46" t="s">
         <v>10</v>
       </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>30.582999999999998</v>
+      </c>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2638,8 +9524,20 @@
       <c r="D47" t="s">
         <v>10</v>
       </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>16.716999999999999</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2652,8 +9550,20 @@
       <c r="D48" t="s">
         <v>10</v>
       </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>16.623999999999999</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2666,8 +9576,20 @@
       <c r="D49" t="s">
         <v>10</v>
       </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>16.716000000000001</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2680,8 +9602,20 @@
       <c r="D50" t="s">
         <v>10</v>
       </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>11.532</v>
+      </c>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2694,8 +9628,20 @@
       <c r="D51" t="s">
         <v>10</v>
       </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>11.547000000000001</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2708,8 +9654,20 @@
       <c r="D52" t="s">
         <v>10</v>
       </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>11.552</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2722,8 +9680,20 @@
       <c r="D53" t="s">
         <v>10</v>
       </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>16</v>
+      </c>
+      <c r="H53">
+        <v>8.859</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2736,8 +9706,20 @@
       <c r="D54" t="s">
         <v>10</v>
       </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>16</v>
+      </c>
+      <c r="H54">
+        <v>8.8219999999999992</v>
+      </c>
+      <c r="I54" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2750,8 +9732,20 @@
       <c r="D55" t="s">
         <v>10</v>
       </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>8.8170000000000002</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2764,8 +9758,20 @@
       <c r="D56" t="s">
         <v>10</v>
       </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>24</v>
+      </c>
+      <c r="H56">
+        <v>6.1790000000000003</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2778,8 +9784,20 @@
       <c r="D57" t="s">
         <v>10</v>
       </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>24</v>
+      </c>
+      <c r="H57">
+        <v>6.3339999999999996</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2792,8 +9810,20 @@
       <c r="D58" t="s">
         <v>10</v>
       </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <v>24</v>
+      </c>
+      <c r="H58">
+        <v>6.1849999999999996</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2806,8 +9836,20 @@
       <c r="D59" t="s">
         <v>10</v>
       </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <v>32</v>
+      </c>
+      <c r="H59">
+        <v>4.6920000000000002</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2820,8 +9862,20 @@
       <c r="D60" t="s">
         <v>10</v>
       </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>32</v>
+      </c>
+      <c r="H60">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2834,8 +9888,20 @@
       <c r="D61" t="s">
         <v>10</v>
       </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>32</v>
+      </c>
+      <c r="H61">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2848,8 +9914,20 @@
       <c r="D62" t="s">
         <v>10</v>
       </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62">
+        <v>48</v>
+      </c>
+      <c r="H62">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2862,8 +9940,20 @@
       <c r="D63" t="s">
         <v>10</v>
       </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>48</v>
+      </c>
+      <c r="H63">
+        <v>3.9660000000000002</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2876,8 +9966,20 @@
       <c r="D64" t="s">
         <v>10</v>
       </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <v>48</v>
+      </c>
+      <c r="H64">
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2890,8 +9992,20 @@
       <c r="D65" t="s">
         <v>10</v>
       </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2904,8 +10018,20 @@
       <c r="D66" t="s">
         <v>10</v>
       </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>64</v>
+      </c>
+      <c r="H66">
+        <v>3.28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2918,8 +10044,20 @@
       <c r="D67" t="s">
         <v>10</v>
       </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>64</v>
+      </c>
+      <c r="H67">
+        <v>3.4969999999999999</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2932,8 +10070,20 @@
       <c r="D68" t="s">
         <v>12</v>
       </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>70.287000000000006</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2946,8 +10096,20 @@
       <c r="D69" t="s">
         <v>12</v>
       </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69">
+        <v>71.061000000000007</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2960,8 +10122,20 @@
       <c r="D70" t="s">
         <v>12</v>
       </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70">
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <v>70.477999999999994</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -2974,8 +10148,20 @@
       <c r="D71" t="s">
         <v>12</v>
       </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>16</v>
+      </c>
+      <c r="H71">
+        <v>37.503999999999998</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -2988,8 +10174,20 @@
       <c r="D72" t="s">
         <v>12</v>
       </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>16</v>
+      </c>
+      <c r="H72">
+        <v>37.473999999999997</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3002,8 +10200,20 @@
       <c r="D73" t="s">
         <v>12</v>
       </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73">
+        <v>16</v>
+      </c>
+      <c r="H73">
+        <v>37.518999999999998</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3016,8 +10226,20 @@
       <c r="D74" t="s">
         <v>12</v>
       </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>32</v>
+      </c>
+      <c r="H74">
+        <v>19.881</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3030,8 +10252,20 @@
       <c r="D75" t="s">
         <v>12</v>
       </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>32</v>
+      </c>
+      <c r="H75">
+        <v>20.811</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3044,8 +10278,20 @@
       <c r="D76" t="s">
         <v>12</v>
       </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>32</v>
+      </c>
+      <c r="H76">
+        <v>21.004000000000001</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3058,8 +10304,20 @@
       <c r="D77" t="s">
         <v>12</v>
       </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>64</v>
+      </c>
+      <c r="H77">
+        <v>14.874000000000001</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3072,19 +10330,716 @@
       <c r="D78" t="s">
         <v>12</v>
       </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>64</v>
+      </c>
+      <c r="H78">
+        <v>14.782999999999999</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79">
         <v>64</v>
       </c>
-      <c r="C79">
-        <v>15.643024022000001</v>
-      </c>
       <c r="D79" t="s">
         <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>64</v>
+      </c>
+      <c r="H79">
+        <v>14.144</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2401614-BA96-48EB-BC57-655DFAADC499}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.229197783</v>
+      </c>
+      <c r="C3">
+        <v>15.18</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>69.294019246000005</v>
+      </c>
+      <c r="G3">
+        <v>71.704999999999998</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>74.895381377000007</v>
+      </c>
+      <c r="K3">
+        <v>70.477999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12.442433862</v>
+      </c>
+      <c r="C4">
+        <v>11.667999999999999</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>53.031266256999999</v>
+      </c>
+      <c r="G4">
+        <v>55.978000000000002</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>39.819025893000003</v>
+      </c>
+      <c r="K4">
+        <v>37.503999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7.4784881739999998</v>
+      </c>
+      <c r="C5">
+        <v>7.0220000000000002</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>31.789716234</v>
+      </c>
+      <c r="G5">
+        <v>31.283999999999999</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>22.332250948999999</v>
+      </c>
+      <c r="K5">
+        <v>20.811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4.1473177049999999</v>
+      </c>
+      <c r="C6">
+        <v>3.9</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>17.683234696</v>
+      </c>
+      <c r="G6">
+        <v>16.716000000000001</v>
+      </c>
+      <c r="I6">
+        <v>64</v>
+      </c>
+      <c r="J6">
+        <v>15.643024022000001</v>
+      </c>
+      <c r="K6">
+        <v>14.782999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2.887656872</v>
+      </c>
+      <c r="C7">
+        <v>2.7</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>12.311310903000001</v>
+      </c>
+      <c r="G7">
+        <v>11.547000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2.2014176399999998</v>
+      </c>
+      <c r="C8">
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>9.4073229400000002</v>
+      </c>
+      <c r="G8">
+        <v>8.8219999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1.6286649900000001</v>
+      </c>
+      <c r="C9">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>6.6996828329999998</v>
+      </c>
+      <c r="G9">
+        <v>6.1849999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1.2708245359999999</v>
+      </c>
+      <c r="C10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>5.3235568109999996</v>
+      </c>
+      <c r="G10">
+        <v>4.8550000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>0.98269194800000004</v>
+      </c>
+      <c r="C11">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E11">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>4.303559549</v>
+      </c>
+      <c r="G11">
+        <v>3.8370000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0.87803492000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <v>3.8173201890000001</v>
+      </c>
+      <c r="G12">
+        <v>3.4289999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59CA81-405D-412E-90F4-9035DC10537A}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>15.916391411999999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>15.222714</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>$B$2 / Graphs!B3</f>
+        <v>0.98072570344002685</v>
+      </c>
+      <c r="F3">
+        <f>$B$3 / Graphs!C3</f>
+        <v>1.0028138339920949</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>$B$6 / Graphs!F3</f>
+        <v>0.98445467874830794</v>
+      </c>
+      <c r="J3">
+        <f>$B$7 / Graphs!G3</f>
+        <v>0.91609599051670043</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <f>$B$10 / Graphs!J3</f>
+        <v>3.9326943478313332</v>
+      </c>
+      <c r="N3">
+        <f>$B$11 / Graphs!K3</f>
+        <v>3.9527370243196462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>$B$2 / Graphs!B4</f>
+        <v>1.2792024123680248</v>
+      </c>
+      <c r="F4">
+        <f>$B$3 / Graphs!C4</f>
+        <v>1.3046549537195751</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>$B$6 / Graphs!F4</f>
+        <v>1.286350982558248</v>
+      </c>
+      <c r="J4">
+        <f>$B$7 / Graphs!G4</f>
+        <v>1.1734728464754012</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <f>$B$10 / Graphs!J4</f>
+        <v>7.3969826336655533</v>
+      </c>
+      <c r="N4">
+        <f>$B$11 / Graphs!K4</f>
+        <v>7.4280343430034135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>$B$2 / Graphs!B5</f>
+        <v>2.1282899754171622</v>
+      </c>
+      <c r="F5">
+        <f>$B$3 / Graphs!C5</f>
+        <v>2.1678601538023354</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>$B$6 / Graphs!F5</f>
+        <v>2.1458770173934485</v>
+      </c>
+      <c r="J5">
+        <f>$B$7 / Graphs!G5</f>
+        <v>2.0997526850786348</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <f>$B$10 / Graphs!J5</f>
+        <v>13.189026206656926</v>
+      </c>
+      <c r="N5">
+        <f>$B$11 / Graphs!K5</f>
+        <v>13.386238047186584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>68.216821456000005</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f>$B$2 / Graphs!B6</f>
+        <v>3.8377555191422212</v>
+      </c>
+      <c r="F6">
+        <f>$B$3 / Graphs!C6</f>
+        <v>3.90326</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f>$B$6 / Graphs!F6</f>
+        <v>3.8577117042636355</v>
+      </c>
+      <c r="J6">
+        <f>$B$7 / Graphs!G6</f>
+        <v>3.9296879038047381</v>
+      </c>
+      <c r="L6">
+        <v>64</v>
+      </c>
+      <c r="M6">
+        <f>$B$10 / Graphs!J6</f>
+        <v>18.828881334310079</v>
+      </c>
+      <c r="N6">
+        <f>$B$11 / Graphs!K6</f>
+        <v>18.844686464181834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>65.688663000000005</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f>$B$2 / Graphs!B7</f>
+        <v>5.5118707372514999</v>
+      </c>
+      <c r="F7">
+        <f>$B$3 / Graphs!C7</f>
+        <v>5.6380422222222215</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <f>$B$6 / Graphs!F7</f>
+        <v>5.5409876327123735</v>
+      </c>
+      <c r="J7">
+        <f>$B$7 / Graphs!G7</f>
+        <v>5.6888077422707202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f>$B$2 / Graphs!B8</f>
+        <v>7.2300644470169688</v>
+      </c>
+      <c r="F8">
+        <f>$B$3 / Graphs!C8</f>
+        <v>6.6795585783238263</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <f>$B$6 / Graphs!F8</f>
+        <v>7.2514595162818978</v>
+      </c>
+      <c r="J8">
+        <f>$B$7 / Graphs!G8</f>
+        <v>7.4460057810020412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <f>$B$2 / Graphs!B9</f>
+        <v>9.7726613574471184</v>
+      </c>
+      <c r="F9">
+        <f>$B$3 / Graphs!C9</f>
+        <v>10.63038687150838</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <f>$B$6 / Graphs!F9</f>
+        <v>10.182097146448605</v>
+      </c>
+      <c r="J9">
+        <f>$B$7 / Graphs!G9</f>
+        <v>10.620640743734844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>294.54064302</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <f>$B$2 / Graphs!B10</f>
+        <v>12.524460270571925</v>
+      </c>
+      <c r="F10">
+        <f>$B$3 / Graphs!C10</f>
+        <v>13.714156756756756</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <f>$B$6 / Graphs!F10</f>
+        <v>12.814143603209875</v>
+      </c>
+      <c r="J10">
+        <f>$B$7 / Graphs!G10</f>
+        <v>13.530105664263646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>278.58100000000002</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <f>$B$2 / Graphs!B11</f>
+        <v>16.19672517353322</v>
+      </c>
+      <c r="F11">
+        <f>$B$3 / Graphs!C11</f>
+        <v>16.95179732739421</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <f>$B$6 / Graphs!F11</f>
+        <v>15.85125538040975</v>
+      </c>
+      <c r="J11">
+        <f>$B$7 / Graphs!G11</f>
+        <v>17.119797498045347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <f>$B$2 / Graphs!B12</f>
+        <v>18.127287479636912</v>
+      </c>
+      <c r="F12">
+        <f>$B$3 / Graphs!C12</f>
+        <v>18.51911678832117</v>
+      </c>
+      <c r="H12">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <f>$B$6 / Graphs!F12</f>
+        <v>17.870343088477036</v>
+      </c>
+      <c r="J12">
+        <f>$B$7 / Graphs!G12</f>
+        <v>19.15679877515311</v>
       </c>
     </row>
   </sheetData>

--- a/Go/results go.xlsx
+++ b/Go/results go.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxkb\OneDrive\Documents\Uni\Year 4\DPT\DPT-coursework\Go\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:40009_{AAD3466C-55BE-4563-A2DA-9423CF68B2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40786C01-12EE-4D4B-9BA2-F6DF1AD32E2D}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{6D8AE7A7-A814-452C-9090-8F2205533DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40F00031-1B5D-4E3B-A072-F98100C35690}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results go" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs" sheetId="2" r:id="rId2"/>
     <sheet name="Speedups" sheetId="3" r:id="rId3"/>
+    <sheet name="Performance Tuning" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="42">
   <si>
     <t>dataset</t>
   </si>
@@ -123,6 +124,39 @@
   </si>
   <si>
     <t>Sequential OpenMP</t>
+  </si>
+  <si>
+    <t>Sum of Totients between 1 and 60000 is 1094277505</t>
+  </si>
+  <si>
+    <t>Elapsed time: 15.219318s</t>
+  </si>
+  <si>
+    <t>Elapsed time: 15.215141s</t>
+  </si>
+  <si>
+    <t>Elapsed time: 15.214569s</t>
+  </si>
+  <si>
+    <t>Elapsed time: 65.281682s</t>
+  </si>
+  <si>
+    <t>Elapsed time: 65.281377s</t>
+  </si>
+  <si>
+    <t>Elapsed time: 65.362516s</t>
+  </si>
+  <si>
+    <t>Untuned</t>
+  </si>
+  <si>
+    <t>Tuned</t>
+  </si>
+  <si>
+    <t>Go DS2</t>
+  </si>
+  <si>
+    <t>OpenMP DS2</t>
   </si>
 </sst>
 </file>
@@ -4434,6 +4468,1290 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DS2 Go Untuned vs Tuned Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tuning'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untuned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Performance Tuning'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69.294019246000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.031266256999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.789716234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.683234696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.311310903000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4073229400000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6996828329999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3235568109999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.303559549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8173201890000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Performance Tuning'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-826F-4BDF-81DF-928B53E297CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tuning'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tuned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Performance Tuning'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76.918487597999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.561054962999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.172949973000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.447896373000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9724721000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2649210310000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1171104209999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3952723389999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.388085486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3845105489999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Performance Tuning'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-826F-4BDF-81DF-928B53E297CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="473440952"/>
+        <c:axId val="473441592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="473440952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473441592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="473441592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Num of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473440952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DS2 C+OpenMP Untuned vs Tuned Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tuning'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untuned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Performance Tuning'!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.978000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.716000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.547000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8219999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4289999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Performance Tuning'!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35B9-4792-B884-018EDDCC08E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tuning'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tuned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Performance Tuning'!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.084999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.561999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8390000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Performance Tuning'!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35B9-4792-B884-018EDDCC08E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="473440952"/>
+        <c:axId val="473441592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="473440952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473441592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="473441592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Num of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473440952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4674,6 +5992,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7255,6 +8653,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7996,6 +10426,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>536574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B04BA7A-6898-4FAF-9A02-2ED6AE863CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43254F7-B1C3-4DCA-AA21-562545BC874C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8301,21 +10810,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A88" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8341,7 +10852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8367,7 +10878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8393,7 +10904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8419,7 +10930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +10956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8471,7 +10982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -8497,7 +11008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -8523,7 +11034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -8549,7 +11060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -8575,7 +11086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -8601,7 +11112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -8627,7 +11138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -8653,7 +11164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -8679,7 +11190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -8705,7 +11216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -8731,7 +11242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -8757,7 +11268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -8783,7 +11294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -8809,7 +11320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -8835,7 +11346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -8861,7 +11372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -8887,7 +11398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -8913,7 +11424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -8939,7 +11450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -8965,7 +11476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -8991,7 +11502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -9017,7 +11528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -9043,7 +11554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -9069,7 +11580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -9095,7 +11606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9121,7 +11632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -9147,7 +11658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -9173,7 +11684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -9199,7 +11710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -9225,7 +11736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -9251,7 +11762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -9277,7 +11788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -9303,7 +11814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -9329,7 +11840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -9355,7 +11866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -9381,7 +11892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -9407,7 +11918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -9433,7 +11944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -9459,7 +11970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -9485,7 +11996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -9511,7 +12022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -9537,7 +12048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -9563,7 +12074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -9589,7 +12100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -9615,7 +12126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -9641,7 +12152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -9667,7 +12178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -9693,7 +12204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -9719,7 +12230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -9745,7 +12256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -9771,7 +12282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -9797,7 +12308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -9823,7 +12334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -9849,7 +12360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -9875,7 +12386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -9901,7 +12412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -9927,7 +12438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -9953,7 +12464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -9979,7 +12490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -10005,7 +12516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -10031,7 +12542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -10057,7 +12568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -10083,7 +12594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -10109,7 +12620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -10135,7 +12646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -10161,7 +12672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -10187,7 +12698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -10213,7 +12724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -10239,7 +12750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -10265,7 +12776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -10291,7 +12802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -10317,7 +12828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -10343,7 +12854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -10363,6 +12874,2031 @@
         <v>14.144</v>
       </c>
       <c r="I79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>16.311670263</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>16.092943188</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>15.96533163</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>18.427686690000002</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>15.173</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>18.135263655999999</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>15.170999999999999</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>18.129561070000001</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>15.17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>9.1171344780000005</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>7.593</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>9.1639071510000001</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>9.1191925559999998</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>7.5919999999999996</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>4.7769951400000004</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>4.7723376100000001</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>3.9729999999999999</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>4.7744750030000001</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <v>3.972</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>2.4774739389999998</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93">
+        <v>2.06</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>2.4776155119999999</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>8</v>
+      </c>
+      <c r="H94">
+        <v>2.06</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>2.4675045949999999</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>1.651637657</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <v>1.377</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>1.6545499889999999</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <v>1.375</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>1.6525596499999999</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>12</v>
+      </c>
+      <c r="H98">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>1.2624900670000001</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>16</v>
+      </c>
+      <c r="H99">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>1.279121486</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>16</v>
+      </c>
+      <c r="H100">
+        <v>1.05</v>
+      </c>
+      <c r="I100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>1.2776668630000001</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>16</v>
+      </c>
+      <c r="H101">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>24</v>
+      </c>
+      <c r="C102">
+        <v>0.97603234999999999</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>24</v>
+      </c>
+      <c r="H102">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>24</v>
+      </c>
+      <c r="C103">
+        <v>0.97356211500000001</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>24</v>
+      </c>
+      <c r="H103">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>24</v>
+      </c>
+      <c r="C104">
+        <v>0.97577775499999997</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>24</v>
+      </c>
+      <c r="H104">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>32</v>
+      </c>
+      <c r="C105">
+        <v>0.80670670700000002</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>32</v>
+      </c>
+      <c r="H105">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>32</v>
+      </c>
+      <c r="C106">
+        <v>0.80661598899999998</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>32</v>
+      </c>
+      <c r="H106">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>32</v>
+      </c>
+      <c r="C107">
+        <v>0.80402357199999996</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>32</v>
+      </c>
+      <c r="H107">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>48</v>
+      </c>
+      <c r="C108">
+        <v>0.80273218899999998</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>48</v>
+      </c>
+      <c r="H108">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="I108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>48</v>
+      </c>
+      <c r="C109">
+        <v>0.80321112800000005</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <v>48</v>
+      </c>
+      <c r="H109">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>48</v>
+      </c>
+      <c r="C110">
+        <v>0.80487679599999995</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>48</v>
+      </c>
+      <c r="H110">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>64</v>
+      </c>
+      <c r="C111">
+        <v>0.80548305899999995</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <v>64</v>
+      </c>
+      <c r="H111">
+        <v>0.65</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112">
+        <v>64</v>
+      </c>
+      <c r="C112">
+        <v>0.80418211100000003</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>64</v>
+      </c>
+      <c r="H112">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>64</v>
+      </c>
+      <c r="C113">
+        <v>0.80587959300000001</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113">
+        <v>64</v>
+      </c>
+      <c r="H113">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>67.943837505999994</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>68.106961734999999</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>36</v>
+      </c>
+      <c r="I115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>68.184565947999999</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>76.811213687999995</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>65.150999999999996</v>
+      </c>
+      <c r="I117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>77.209987084000005</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>65.072000000000003</v>
+      </c>
+      <c r="I118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>76.918487597999999</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>65.084999999999994</v>
+      </c>
+      <c r="I119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>38.561054962999997</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>32.561</v>
+      </c>
+      <c r="I120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>38.553313361000001</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>32.561999999999998</v>
+      </c>
+      <c r="I121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>38.567971166</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>32.561999999999998</v>
+      </c>
+      <c r="I122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>20.153474927000001</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
+      </c>
+      <c r="H123">
+        <v>17.038</v>
+      </c>
+      <c r="I123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>20.202055059999999</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+      <c r="H124">
+        <v>16.963999999999999</v>
+      </c>
+      <c r="I124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>20.172949973000001</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <v>17.042000000000002</v>
+      </c>
+      <c r="I125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>10.452486237</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126">
+        <v>8</v>
+      </c>
+      <c r="H126">
+        <v>8.8390000000000004</v>
+      </c>
+      <c r="I126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>10.447896373000001</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127">
+        <v>8</v>
+      </c>
+      <c r="H127">
+        <v>8.8409999999999993</v>
+      </c>
+      <c r="I127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>10.449740799000001</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128">
+        <v>8</v>
+      </c>
+      <c r="H128">
+        <v>8.8369999999999997</v>
+      </c>
+      <c r="I128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>6.976507571</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129">
+        <v>12</v>
+      </c>
+      <c r="H129">
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="I129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>6.9698634190000002</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130">
+        <v>12</v>
+      </c>
+      <c r="H130">
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="I130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>6.9724721000000001</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131">
+        <v>12</v>
+      </c>
+      <c r="H131">
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="I131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132">
+        <v>16</v>
+      </c>
+      <c r="C132">
+        <v>5.254455986</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132">
+        <v>16</v>
+      </c>
+      <c r="H132">
+        <v>4.43</v>
+      </c>
+      <c r="I132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>16</v>
+      </c>
+      <c r="C133">
+        <v>5.2649210310000001</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>16</v>
+      </c>
+      <c r="H133">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>5.2709818080000002</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134">
+        <v>16</v>
+      </c>
+      <c r="H134">
+        <v>4.4260000000000002</v>
+      </c>
+      <c r="I134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135">
+        <v>24</v>
+      </c>
+      <c r="C135">
+        <v>4.1120717510000002</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135">
+        <v>24</v>
+      </c>
+      <c r="H135">
+        <v>3.399</v>
+      </c>
+      <c r="I135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136">
+        <v>24</v>
+      </c>
+      <c r="C136">
+        <v>4.1171104209999996</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136">
+        <v>24</v>
+      </c>
+      <c r="H136">
+        <v>3.399</v>
+      </c>
+      <c r="I136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>24</v>
+      </c>
+      <c r="C137">
+        <v>4.1190535949999996</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137">
+        <v>24</v>
+      </c>
+      <c r="H137">
+        <v>3.399</v>
+      </c>
+      <c r="I137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>32</v>
+      </c>
+      <c r="C138">
+        <v>3.3954885030000002</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138">
+        <v>32</v>
+      </c>
+      <c r="H138">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="I138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139">
+        <v>32</v>
+      </c>
+      <c r="C139">
+        <v>3.3912654849999999</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139">
+        <v>32</v>
+      </c>
+      <c r="H139">
+        <v>2.758</v>
+      </c>
+      <c r="I139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140">
+        <v>32</v>
+      </c>
+      <c r="C140">
+        <v>3.3952723389999999</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140">
+        <v>32</v>
+      </c>
+      <c r="H140">
+        <v>2.76</v>
+      </c>
+      <c r="I140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141">
+        <v>48</v>
+      </c>
+      <c r="C141">
+        <v>3.388085486</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141">
+        <v>48</v>
+      </c>
+      <c r="H141">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="I141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142">
+        <v>48</v>
+      </c>
+      <c r="C142">
+        <v>3.388040647</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142">
+        <v>48</v>
+      </c>
+      <c r="H142">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="I142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143">
+        <v>48</v>
+      </c>
+      <c r="C143">
+        <v>3.392429806</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143">
+        <v>48</v>
+      </c>
+      <c r="H143">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="I143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144">
+        <v>64</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144">
+        <v>64</v>
+      </c>
+      <c r="H144">
+        <v>2.76</v>
+      </c>
+      <c r="I144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145">
+        <v>64</v>
+      </c>
+      <c r="C145">
+        <v>3.3983074910000002</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145">
+        <v>64</v>
+      </c>
+      <c r="H145">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="I145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146">
+        <v>64</v>
+      </c>
+      <c r="C146">
+        <v>3.3905894179999998</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146">
+        <v>64</v>
+      </c>
+      <c r="H146">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="I146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>44.092261114000003</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>8</v>
+      </c>
+      <c r="H147">
+        <v>37.725000000000001</v>
+      </c>
+      <c r="I147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>44.092204101</v>
+      </c>
+      <c r="D148" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>8</v>
+      </c>
+      <c r="H148">
+        <v>37.722999999999999</v>
+      </c>
+      <c r="I148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>44.091006288999999</v>
+      </c>
+      <c r="D149" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>8</v>
+      </c>
+      <c r="H149">
+        <v>37.725000000000001</v>
+      </c>
+      <c r="I149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150">
+        <v>16</v>
+      </c>
+      <c r="C150">
+        <v>22.079033662000001</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>16</v>
+      </c>
+      <c r="H150">
+        <v>18.895</v>
+      </c>
+      <c r="I150" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151">
+        <v>16</v>
+      </c>
+      <c r="C151">
+        <v>22.075419387</v>
+      </c>
+      <c r="D151" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151">
+        <v>16</v>
+      </c>
+      <c r="H151">
+        <v>18.89</v>
+      </c>
+      <c r="I151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152">
+        <v>16</v>
+      </c>
+      <c r="C152">
+        <v>22.110716074999999</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152">
+        <v>16</v>
+      </c>
+      <c r="H152">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="I152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153">
+        <v>32</v>
+      </c>
+      <c r="C153">
+        <v>14.259415883000001</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <v>32</v>
+      </c>
+      <c r="H153">
+        <v>11.741</v>
+      </c>
+      <c r="I153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154">
+        <v>32</v>
+      </c>
+      <c r="C154">
+        <v>14.252519598999999</v>
+      </c>
+      <c r="D154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154">
+        <v>32</v>
+      </c>
+      <c r="H154">
+        <v>11.74</v>
+      </c>
+      <c r="I154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155">
+        <v>32</v>
+      </c>
+      <c r="C155">
+        <v>14.250563551999999</v>
+      </c>
+      <c r="D155" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155">
+        <v>32</v>
+      </c>
+      <c r="H155">
+        <v>11.755000000000001</v>
+      </c>
+      <c r="I155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156">
+        <v>64</v>
+      </c>
+      <c r="C156">
+        <v>14.254745004</v>
+      </c>
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156">
+        <v>64</v>
+      </c>
+      <c r="H156">
+        <v>11.74</v>
+      </c>
+      <c r="I156" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157">
+        <v>64</v>
+      </c>
+      <c r="C157">
+        <v>14.249099054</v>
+      </c>
+      <c r="D157" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157">
+        <v>64</v>
+      </c>
+      <c r="H157">
+        <v>11.741</v>
+      </c>
+      <c r="I157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158">
+        <v>64</v>
+      </c>
+      <c r="C158">
+        <v>14.257101819000001</v>
+      </c>
+      <c r="D158" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158">
+        <v>64</v>
+      </c>
+      <c r="H158">
+        <v>11.742000000000001</v>
+      </c>
+      <c r="I158" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10376,12 +14912,12 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -10392,7 +14928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -10421,7 +14957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10450,7 +14986,7 @@
         <v>70.477999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10479,7 +15015,7 @@
         <v>37.503999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10508,7 +15044,7 @@
         <v>20.811</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
@@ -10537,7 +15073,7 @@
         <v>14.782999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>12</v>
       </c>
@@ -10557,7 +15093,7 @@
         <v>11.547000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>16</v>
       </c>
@@ -10577,7 +15113,7 @@
         <v>8.8219999999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>24</v>
       </c>
@@ -10597,7 +15133,7 @@
         <v>6.1849999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>32</v>
       </c>
@@ -10617,7 +15153,7 @@
         <v>4.8550000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>48</v>
       </c>
@@ -10637,7 +15173,7 @@
         <v>3.8370000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>64</v>
       </c>
@@ -10667,16 +15203,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59CA81-405D-412E-90F4-9035DC10537A}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10687,7 +15223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -10722,7 +15258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -10763,7 +15299,7 @@
         <v>3.9527370243196462</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D4">
         <v>2</v>
       </c>
@@ -10798,7 +15334,7 @@
         <v>7.4280343430034135</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -10836,7 +15372,7 @@
         <v>13.386238047186584</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -10877,7 +15413,7 @@
         <v>18.844686464181834</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -10907,7 +15443,7 @@
         <v>5.6888077422707202</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D8">
         <v>16</v>
       </c>
@@ -10931,7 +15467,7 @@
         <v>7.4460057810020412</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -10958,7 +15494,7 @@
         <v>10.620640743734844</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -10988,7 +15524,7 @@
         <v>13.530105664263646</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -11018,7 +15554,7 @@
         <v>17.119797498045347</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D12">
         <v>64</v>
       </c>
@@ -11040,6 +15576,274 @@
       <c r="J12">
         <f>$B$7 / Graphs!G12</f>
         <v>19.15679877515311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B31564-144C-4844-89A5-1F6BF44FC46A}">
+  <dimension ref="B1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>69.294019246000005</v>
+      </c>
+      <c r="D3">
+        <v>76.918487597999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>53.031266256999999</v>
+      </c>
+      <c r="D4">
+        <v>38.561054962999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>31.789716234</v>
+      </c>
+      <c r="D5">
+        <v>20.172949973000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>17.683234696</v>
+      </c>
+      <c r="D6">
+        <v>10.447896373000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>12.311310903000001</v>
+      </c>
+      <c r="D7">
+        <v>6.9724721000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>9.4073229400000002</v>
+      </c>
+      <c r="D8">
+        <v>5.2649210310000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>6.6996828329999998</v>
+      </c>
+      <c r="D9">
+        <v>4.1171104209999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>5.3235568109999996</v>
+      </c>
+      <c r="D10">
+        <v>3.3952723389999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>4.303559549</v>
+      </c>
+      <c r="D11">
+        <v>3.388085486</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>3.8173201890000001</v>
+      </c>
+      <c r="D12">
+        <v>3.3845105489999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>71.704999999999998</v>
+      </c>
+      <c r="D16">
+        <v>65.084999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>55.978000000000002</v>
+      </c>
+      <c r="D17">
+        <v>32.561999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>31.283999999999999</v>
+      </c>
+      <c r="D18">
+        <v>17.038</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>16.716000000000001</v>
+      </c>
+      <c r="D19">
+        <v>8.8390000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>11.547000000000001</v>
+      </c>
+      <c r="D20">
+        <v>5.8940000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>8.8219999999999992</v>
+      </c>
+      <c r="D21">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>6.1849999999999996</v>
+      </c>
+      <c r="D22">
+        <v>3.399</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="D23">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="D24">
+        <v>2.7610000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="D25">
+        <v>2.76</v>
       </c>
     </row>
   </sheetData>

--- a/Go/results go.xlsx
+++ b/Go/results go.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxkb\OneDrive\Documents\Uni\Year 4\DPT\DPT-coursework\Go\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{6D8AE7A7-A814-452C-9090-8F2205533DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40F00031-1B5D-4E3B-A072-F98100C35690}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{6D8AE7A7-A814-452C-9090-8F2205533DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D80AF75-8538-4884-948E-A0E65A059F08}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="42">
   <si>
     <t>dataset</t>
   </si>
@@ -864,34 +864,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.229197783</c:v>
+                  <c:v>16.355375959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.442433862</c:v>
+                  <c:v>9.0661467580000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4784881739999998</c:v>
+                  <c:v>4.7405792340000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1473177049999999</c:v>
+                  <c:v>2.4612415419999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.887656872</c:v>
+                  <c:v>1.6475619239999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2014176399999998</c:v>
+                  <c:v>1.264212785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6286649900000001</c:v>
+                  <c:v>0.97284453199999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2708245359999999</c:v>
+                  <c:v>0.80052979300000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98269194800000004</c:v>
+                  <c:v>0.80169590800000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87803492000000005</c:v>
+                  <c:v>0.80270039400000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,34 +987,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.18</c:v>
+                  <c:v>15.170999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.667999999999999</c:v>
+                  <c:v>7.5919999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0220000000000002</c:v>
+                  <c:v>3.9729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>1.3759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2789999999999999</c:v>
+                  <c:v>1.0409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4319999999999999</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>0.64900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89800000000000002</c:v>
+                  <c:v>0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82199999999999995</c:v>
+                  <c:v>0.65300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,34 +1521,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>69.294019246000005</c:v>
+                  <c:v>69.912270863000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.031266256999999</c:v>
+                  <c:v>38.368107610999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.789716234</c:v>
+                  <c:v>20.064803259000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.683234696</c:v>
+                  <c:v>10.406590813999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.311310903000001</c:v>
+                  <c:v>6.9416794399999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4073229400000002</c:v>
+                  <c:v>5.2270355249999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6996828329999998</c:v>
+                  <c:v>4.0979035460000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3235568109999996</c:v>
+                  <c:v>3.376901384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.303559549</c:v>
+                  <c:v>3.3745344510000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8173201890000001</c:v>
+                  <c:v>3.377058415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,34 +1644,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>71.704999999999998</c:v>
+                  <c:v>65.084999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.978000000000002</c:v>
+                  <c:v>32.561999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.283999999999999</c:v>
+                  <c:v>17.042000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.716000000000001</c:v>
+                  <c:v>8.8390000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.547000000000001</c:v>
+                  <c:v>5.8940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8219999999999992</c:v>
+                  <c:v>4.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1849999999999996</c:v>
+                  <c:v>3.399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8550000000000004</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8370000000000002</c:v>
+                  <c:v>2.7610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4289999999999998</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,16 +2160,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>74.895381377000007</c:v>
+                  <c:v>43.908420771999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.819025893000003</c:v>
+                  <c:v>22.003493661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.332250948999999</c:v>
+                  <c:v>14.206003402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.643024022000001</c:v>
+                  <c:v>14.205709568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,16 +2247,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70.477999999999994</c:v>
+                  <c:v>37.725000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.503999999999998</c:v>
+                  <c:v>18.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.811</c:v>
+                  <c:v>11.741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.782999999999999</c:v>
+                  <c:v>11.741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,34 +2724,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98072570344002685</c:v>
+                  <c:v>0.97553996484074335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2792024123680248</c:v>
+                  <c:v>1.7598791762245594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1282899754171622</c:v>
+                  <c:v>3.3656905834558191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8377555191422212</c:v>
+                  <c:v>6.482631881401911</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5118707372514999</c:v>
+                  <c:v>9.6842022479271623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2300644470169688</c:v>
+                  <c:v>12.620757420990644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7726613574471184</c:v>
+                  <c:v>16.400691336773633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.524460270571925</c:v>
+                  <c:v>19.930954509771755</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.19672517353322</c:v>
+                  <c:v>19.901963735606344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.127287479636912</c:v>
+                  <c:v>19.877058747276507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,34 +2847,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0028138339920949</c:v>
+                  <c:v>1.0029095643003099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3046549537195751</c:v>
+                  <c:v>2.0041018177028449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1678601538023354</c:v>
+                  <c:v>3.8296352881953184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.90326</c:v>
+                  <c:v>7.3859907766990283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6380422222222215</c:v>
+                  <c:v>11.057515261627907</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6795585783238263</c:v>
+                  <c:v>14.615889529298752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.63038687150838</c:v>
+                  <c:v>19.138542138364777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.714156756756756</c:v>
+                  <c:v>23.443976887519259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.95179732739421</c:v>
+                  <c:v>23.371952380952379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.51911678832117</c:v>
+                  <c:v>23.300369065849921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,34 +3371,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98445467874830794</c:v>
+                  <c:v>0.97199037368079022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.286350982558248</c:v>
+                  <c:v>1.7711077900938177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1458770173934485</c:v>
+                  <c:v>3.3867291597050388</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8577117042636355</c:v>
+                  <c:v>6.5299054700585826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5409876327123735</c:v>
+                  <c:v>9.789281523060362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2514595162818978</c:v>
+                  <c:v>13.000495970610416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.182097146448605</c:v>
+                  <c:v>16.582638785466425</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.814143603209875</c:v>
+                  <c:v>20.123197734755053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.85125538040975</c:v>
+                  <c:v>20.137312351593472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.870343088477036</c:v>
+                  <c:v>20.122262019266845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,34 +3494,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.91609599051670043</c:v>
+                  <c:v>1.0030219251747716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1734728464754012</c:v>
+                  <c:v>2.0048425158159819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0997526850786348</c:v>
+                  <c:v>3.8306350193639243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9296879038047381</c:v>
+                  <c:v>7.3856411358750993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6888077422707202</c:v>
+                  <c:v>11.075955548014932</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4460057810020412</c:v>
+                  <c:v>14.736271331828444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.620640743734844</c:v>
+                  <c:v>19.206143571638719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.530105664263646</c:v>
+                  <c:v>23.652783333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.119797498045347</c:v>
+                  <c:v>23.644216588192684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.15679877515311</c:v>
+                  <c:v>23.652783333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4018,16 +4018,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.9326943478313332</c:v>
+                  <c:v>6.7080673329027105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3969826336655533</c:v>
+                  <c:v>13.386085298902207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.189026206656926</c:v>
+                  <c:v>20.73353318911165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.828881334310079</c:v>
+                  <c:v>20.733962046041459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4105,16 +4105,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.9527370243196462</c:v>
+                  <c:v>7.3845195493704443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4280343430034135</c:v>
+                  <c:v>14.747538380095289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.386238047186584</c:v>
+                  <c:v>23.727195298526532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.844686464181834</c:v>
+                  <c:v>23.727195298526532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10204,16 +10204,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>545306</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>462756</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>126207</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10240,16 +10240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>164306</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>162719</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10278,16 +10278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>178594</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>78581</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>350044</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10321,16 +10321,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>153988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>319088</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>56833</xdr:rowOff>
+      <xdr:rowOff>44133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10357,16 +10357,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10395,16 +10395,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180657</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10810,10 +10810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView topLeftCell="A73" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14902,6 +14902,1109 @@
         <v>22</v>
       </c>
     </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>15.955322888</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>15.939535336</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>15.957351051</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>16.355375959</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>16.372696001000001</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>16.354559606999999</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>9.0661467580000004</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>9.1069415780000007</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>9.0562717930000005</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>4.7405792340000001</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>4.7383210489999996</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>4.7506756689999996</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>2.459594939</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>2.4612415419999998</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>2.4624683790000002</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>12</v>
+      </c>
+      <c r="C176">
+        <v>1.655105966</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>12</v>
+      </c>
+      <c r="C177">
+        <v>1.6475619239999999</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>12</v>
+      </c>
+      <c r="C178">
+        <v>1.641362687</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+      <c r="C179">
+        <v>1.2778233130000001</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>16</v>
+      </c>
+      <c r="C180">
+        <v>1.2413941799999999</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>16</v>
+      </c>
+      <c r="C181">
+        <v>1.264212785</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>24</v>
+      </c>
+      <c r="C182">
+        <v>0.96828849800000005</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>24</v>
+      </c>
+      <c r="C183">
+        <v>0.97327700800000005</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>24</v>
+      </c>
+      <c r="C184">
+        <v>0.97284453199999998</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>32</v>
+      </c>
+      <c r="C185">
+        <v>0.79904500199999995</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>32</v>
+      </c>
+      <c r="C186">
+        <v>0.80052979300000005</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>32</v>
+      </c>
+      <c r="C187">
+        <v>0.80769802700000004</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>48</v>
+      </c>
+      <c r="C188">
+        <v>0.80169590800000001</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>48</v>
+      </c>
+      <c r="C189">
+        <v>0.79874856599999999</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>48</v>
+      </c>
+      <c r="C190">
+        <v>0.80281314299999995</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>64</v>
+      </c>
+      <c r="D191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>64</v>
+      </c>
+      <c r="C192">
+        <v>0.80232760700000005</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>64</v>
+      </c>
+      <c r="C193">
+        <v>0.80155227900000003</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>67.859734355000001</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195">
+        <v>67.961210575999999</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>67.954054280999998</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>69.912270863000003</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>69.762976769000005</v>
+      </c>
+      <c r="D198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>69.918605012</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>38.368107610999999</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>38.354777241999997</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>38.372485050000002</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>20.064803259000001</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>20.091608399999998</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>19.994704351999999</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <v>8</v>
+      </c>
+      <c r="C206">
+        <v>10.399656049000001</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>8</v>
+      </c>
+      <c r="C207">
+        <v>10.41666114</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208">
+        <v>10.406590813999999</v>
+      </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209">
+        <v>12</v>
+      </c>
+      <c r="C209">
+        <v>6.9373853380000003</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>12</v>
+      </c>
+      <c r="C210">
+        <v>6.9448872780000004</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211">
+        <v>12</v>
+      </c>
+      <c r="C211">
+        <v>6.9416794399999997</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>16</v>
+      </c>
+      <c r="C212">
+        <v>5.2417380800000002</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>16</v>
+      </c>
+      <c r="C213">
+        <v>5.2270355249999998</v>
+      </c>
+      <c r="D213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214">
+        <v>16</v>
+      </c>
+      <c r="C214">
+        <v>5.2265507170000003</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215">
+        <v>24</v>
+      </c>
+      <c r="C215">
+        <v>4.0995703380000004</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216">
+        <v>24</v>
+      </c>
+      <c r="C216">
+        <v>4.0914943319999999</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>24</v>
+      </c>
+      <c r="C217">
+        <v>4.0979035460000004</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218">
+        <v>32</v>
+      </c>
+      <c r="C218">
+        <v>3.3771433709999998</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219">
+        <v>32</v>
+      </c>
+      <c r="C219">
+        <v>3.376303375</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220">
+        <v>32</v>
+      </c>
+      <c r="C220">
+        <v>3.376901384</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221">
+        <v>48</v>
+      </c>
+      <c r="C221">
+        <v>3.3745344510000002</v>
+      </c>
+      <c r="D221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <v>48</v>
+      </c>
+      <c r="C222">
+        <v>3.3812914329999999</v>
+      </c>
+      <c r="D222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223">
+        <v>48</v>
+      </c>
+      <c r="C223">
+        <v>3.3747480200000002</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224">
+        <v>64</v>
+      </c>
+      <c r="C224">
+        <v>3.3769939</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>64</v>
+      </c>
+      <c r="C225">
+        <v>3.3809063610000001</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226">
+        <v>64</v>
+      </c>
+      <c r="C226">
+        <v>3.377058415</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227">
+        <v>8</v>
+      </c>
+      <c r="C227">
+        <v>43.908420771999999</v>
+      </c>
+      <c r="D227" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228">
+        <v>8</v>
+      </c>
+      <c r="C228">
+        <v>43.906616341000003</v>
+      </c>
+      <c r="D228" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>43.911602608999999</v>
+      </c>
+      <c r="D229" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230">
+        <v>16</v>
+      </c>
+      <c r="C230">
+        <v>22.039932286999999</v>
+      </c>
+      <c r="D230" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231">
+        <v>16</v>
+      </c>
+      <c r="C231">
+        <v>21.989646441000001</v>
+      </c>
+      <c r="D231" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232">
+        <v>16</v>
+      </c>
+      <c r="C232">
+        <v>22.003493661</v>
+      </c>
+      <c r="D232" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233">
+        <v>32</v>
+      </c>
+      <c r="C233">
+        <v>14.213648824</v>
+      </c>
+      <c r="D233" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234">
+        <v>32</v>
+      </c>
+      <c r="C234">
+        <v>14.205969226000001</v>
+      </c>
+      <c r="D234" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235">
+        <v>32</v>
+      </c>
+      <c r="C235">
+        <v>14.206003402</v>
+      </c>
+      <c r="D235" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236">
+        <v>64</v>
+      </c>
+      <c r="C236">
+        <v>14.198845107</v>
+      </c>
+      <c r="D236" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237">
+        <v>64</v>
+      </c>
+      <c r="C237">
+        <v>14.205873413999999</v>
+      </c>
+      <c r="D237" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238">
+        <v>64</v>
+      </c>
+      <c r="C238">
+        <v>14.205709568</v>
+      </c>
+      <c r="D238" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14912,7 +16015,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G12"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14962,28 +16065,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.229197783</v>
+        <v>16.355375959</v>
       </c>
       <c r="C3">
-        <v>15.18</v>
+        <v>15.170999999999999</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>69.294019246000005</v>
+        <v>69.912270863000003</v>
       </c>
       <c r="G3">
-        <v>71.704999999999998</v>
+        <v>65.084999999999994</v>
       </c>
       <c r="I3">
         <v>8</v>
       </c>
       <c r="J3">
-        <v>74.895381377000007</v>
+        <v>43.908420771999999</v>
       </c>
       <c r="K3">
-        <v>70.477999999999994</v>
+        <v>37.725000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -14991,28 +16094,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.442433862</v>
+        <v>9.0661467580000004</v>
       </c>
       <c r="C4">
-        <v>11.667999999999999</v>
+        <v>7.5919999999999996</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>53.031266256999999</v>
+        <v>38.368107610999999</v>
       </c>
       <c r="G4">
-        <v>55.978000000000002</v>
+        <v>32.561999999999998</v>
       </c>
       <c r="I4">
         <v>16</v>
       </c>
       <c r="J4">
-        <v>39.819025893000003</v>
+        <v>22.003493661</v>
       </c>
       <c r="K4">
-        <v>37.503999999999998</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -15020,28 +16123,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.4784881739999998</v>
+        <v>4.7405792340000001</v>
       </c>
       <c r="C5">
-        <v>7.0220000000000002</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>31.789716234</v>
+        <v>20.064803259000001</v>
       </c>
       <c r="G5">
-        <v>31.283999999999999</v>
+        <v>17.042000000000002</v>
       </c>
       <c r="I5">
         <v>32</v>
       </c>
       <c r="J5">
-        <v>22.332250948999999</v>
+        <v>14.206003402</v>
       </c>
       <c r="K5">
-        <v>20.811</v>
+        <v>11.741</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -15049,28 +16152,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.1473177049999999</v>
+        <v>2.4612415419999998</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>2.06</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>17.683234696</v>
+        <v>10.406590813999999</v>
       </c>
       <c r="G6">
-        <v>16.716000000000001</v>
+        <v>8.8390000000000004</v>
       </c>
       <c r="I6">
         <v>64</v>
       </c>
       <c r="J6">
-        <v>15.643024022000001</v>
+        <v>14.205709568</v>
       </c>
       <c r="K6">
-        <v>14.782999999999999</v>
+        <v>11.741</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -15078,19 +16181,19 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2.887656872</v>
+        <v>1.6475619239999999</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="E7">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>12.311310903000001</v>
+        <v>6.9416794399999997</v>
       </c>
       <c r="G7">
-        <v>11.547000000000001</v>
+        <v>5.8940000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -15098,19 +16201,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2.2014176399999998</v>
+        <v>1.264212785</v>
       </c>
       <c r="C8">
-        <v>2.2789999999999999</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8">
-        <v>9.4073229400000002</v>
+        <v>5.2270355249999998</v>
       </c>
       <c r="G8">
-        <v>8.8219999999999992</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -15118,19 +16221,19 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>1.6286649900000001</v>
+        <v>0.97284453199999998</v>
       </c>
       <c r="C9">
-        <v>1.4319999999999999</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="E9">
         <v>24</v>
       </c>
       <c r="F9">
-        <v>6.6996828329999998</v>
+        <v>4.0979035460000004</v>
       </c>
       <c r="G9">
-        <v>6.1849999999999996</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -15138,19 +16241,19 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>1.2708245359999999</v>
+        <v>0.80052979300000005</v>
       </c>
       <c r="C10">
-        <v>1.1100000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E10">
         <v>32</v>
       </c>
       <c r="F10">
-        <v>5.3235568109999996</v>
+        <v>3.376901384</v>
       </c>
       <c r="G10">
-        <v>4.8550000000000004</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -15158,19 +16261,19 @@
         <v>48</v>
       </c>
       <c r="B11">
-        <v>0.98269194800000004</v>
+        <v>0.80169590800000001</v>
       </c>
       <c r="C11">
-        <v>0.89800000000000002</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="E11">
         <v>48</v>
       </c>
       <c r="F11">
-        <v>4.303559549</v>
+        <v>3.3745344510000002</v>
       </c>
       <c r="G11">
-        <v>3.8370000000000002</v>
+        <v>2.7610000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -15178,19 +16281,19 @@
         <v>64</v>
       </c>
       <c r="B12">
-        <v>0.87803492000000005</v>
+        <v>0.80270039400000004</v>
       </c>
       <c r="C12">
-        <v>0.82199999999999995</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="E12">
         <v>64</v>
       </c>
       <c r="F12">
-        <v>3.8173201890000001</v>
+        <v>3.377058415</v>
       </c>
       <c r="G12">
-        <v>3.4289999999999998</v>
+        <v>2.76</v>
       </c>
     </row>
   </sheetData>
@@ -15204,7 +16307,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15228,7 +16331,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>15.916391411999999</v>
+        <v>15.955322888</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -15263,40 +16366,40 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>15.222714</v>
+        <v>15.215140999999999</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
         <f>$B$2 / Graphs!B3</f>
-        <v>0.98072570344002685</v>
+        <v>0.97553996484074335</v>
       </c>
       <c r="F3">
         <f>$B$3 / Graphs!C3</f>
-        <v>1.0028138339920949</v>
+        <v>1.0029095643003099</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
         <f>$B$6 / Graphs!F3</f>
-        <v>0.98445467874830794</v>
+        <v>0.97199037368079022</v>
       </c>
       <c r="J3">
         <f>$B$7 / Graphs!G3</f>
-        <v>0.91609599051670043</v>
+        <v>1.0030219251747716</v>
       </c>
       <c r="L3">
         <v>8</v>
       </c>
       <c r="M3">
         <f>$B$10 / Graphs!J3</f>
-        <v>3.9326943478313332</v>
+        <v>6.7080673329027105</v>
       </c>
       <c r="N3">
         <f>$B$11 / Graphs!K3</f>
-        <v>3.9527370243196462</v>
+        <v>7.3845195493704443</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -15305,33 +16408,33 @@
       </c>
       <c r="E4">
         <f>$B$2 / Graphs!B4</f>
-        <v>1.2792024123680248</v>
+        <v>1.7598791762245594</v>
       </c>
       <c r="F4">
         <f>$B$3 / Graphs!C4</f>
-        <v>1.3046549537195751</v>
+        <v>2.0041018177028449</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
         <f>$B$6 / Graphs!F4</f>
-        <v>1.286350982558248</v>
+        <v>1.7711077900938177</v>
       </c>
       <c r="J4">
         <f>$B$7 / Graphs!G4</f>
-        <v>1.1734728464754012</v>
+        <v>2.0048425158159819</v>
       </c>
       <c r="L4">
         <v>16</v>
       </c>
       <c r="M4">
         <f>$B$10 / Graphs!J4</f>
-        <v>7.3969826336655533</v>
+        <v>13.386085298902207</v>
       </c>
       <c r="N4">
         <f>$B$11 / Graphs!K4</f>
-        <v>7.4280343430034135</v>
+        <v>14.747538380095289</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -15343,33 +16446,33 @@
       </c>
       <c r="E5">
         <f>$B$2 / Graphs!B5</f>
-        <v>2.1282899754171622</v>
+        <v>3.3656905834558191</v>
       </c>
       <c r="F5">
         <f>$B$3 / Graphs!C5</f>
-        <v>2.1678601538023354</v>
+        <v>3.8296352881953184</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
         <f>$B$6 / Graphs!F5</f>
-        <v>2.1458770173934485</v>
+        <v>3.3867291597050388</v>
       </c>
       <c r="J5">
         <f>$B$7 / Graphs!G5</f>
-        <v>2.0997526850786348</v>
+        <v>3.8306350193639243</v>
       </c>
       <c r="L5">
         <v>32</v>
       </c>
       <c r="M5">
         <f>$B$10 / Graphs!J5</f>
-        <v>13.189026206656926</v>
+        <v>20.73353318911165</v>
       </c>
       <c r="N5">
         <f>$B$11 / Graphs!K5</f>
-        <v>13.386238047186584</v>
+        <v>23.727195298526532</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -15377,40 +16480,40 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>68.216821456000005</v>
+        <v>67.954054280999998</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
         <f>$B$2 / Graphs!B6</f>
-        <v>3.8377555191422212</v>
+        <v>6.482631881401911</v>
       </c>
       <c r="F6">
         <f>$B$3 / Graphs!C6</f>
-        <v>3.90326</v>
+        <v>7.3859907766990283</v>
       </c>
       <c r="H6">
         <v>8</v>
       </c>
       <c r="I6">
         <f>$B$6 / Graphs!F6</f>
-        <v>3.8577117042636355</v>
+        <v>6.5299054700585826</v>
       </c>
       <c r="J6">
         <f>$B$7 / Graphs!G6</f>
-        <v>3.9296879038047381</v>
+        <v>7.3856411358750993</v>
       </c>
       <c r="L6">
         <v>64</v>
       </c>
       <c r="M6">
         <f>$B$10 / Graphs!J6</f>
-        <v>18.828881334310079</v>
+        <v>20.733962046041459</v>
       </c>
       <c r="N6">
         <f>$B$11 / Graphs!K6</f>
-        <v>18.844686464181834</v>
+        <v>23.727195298526532</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -15418,29 +16521,29 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>65.688663000000005</v>
+        <v>65.281682000000004</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7">
         <f>$B$2 / Graphs!B7</f>
-        <v>5.5118707372514999</v>
+        <v>9.6842022479271623</v>
       </c>
       <c r="F7">
         <f>$B$3 / Graphs!C7</f>
-        <v>5.6380422222222215</v>
+        <v>11.057515261627907</v>
       </c>
       <c r="H7">
         <v>12</v>
       </c>
       <c r="I7">
         <f>$B$6 / Graphs!F7</f>
-        <v>5.5409876327123735</v>
+        <v>9.789281523060362</v>
       </c>
       <c r="J7">
         <f>$B$7 / Graphs!G7</f>
-        <v>5.6888077422707202</v>
+        <v>11.075955548014932</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -15449,22 +16552,22 @@
       </c>
       <c r="E8">
         <f>$B$2 / Graphs!B8</f>
-        <v>7.2300644470169688</v>
+        <v>12.620757420990644</v>
       </c>
       <c r="F8">
         <f>$B$3 / Graphs!C8</f>
-        <v>6.6795585783238263</v>
+        <v>14.615889529298752</v>
       </c>
       <c r="H8">
         <v>16</v>
       </c>
       <c r="I8">
         <f>$B$6 / Graphs!F8</f>
-        <v>7.2514595162818978</v>
+        <v>13.000495970610416</v>
       </c>
       <c r="J8">
         <f>$B$7 / Graphs!G8</f>
-        <v>7.4460057810020412</v>
+        <v>14.736271331828444</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -15476,22 +16579,22 @@
       </c>
       <c r="E9">
         <f>$B$2 / Graphs!B9</f>
-        <v>9.7726613574471184</v>
+        <v>16.400691336773633</v>
       </c>
       <c r="F9">
         <f>$B$3 / Graphs!C9</f>
-        <v>10.63038687150838</v>
+        <v>19.138542138364777</v>
       </c>
       <c r="H9">
         <v>24</v>
       </c>
       <c r="I9">
         <f>$B$6 / Graphs!F9</f>
-        <v>10.182097146448605</v>
+        <v>16.582638785466425</v>
       </c>
       <c r="J9">
         <f>$B$7 / Graphs!G9</f>
-        <v>10.620640743734844</v>
+        <v>19.206143571638719</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -15506,22 +16609,22 @@
       </c>
       <c r="E10">
         <f>$B$2 / Graphs!B10</f>
-        <v>12.524460270571925</v>
+        <v>19.930954509771755</v>
       </c>
       <c r="F10">
         <f>$B$3 / Graphs!C10</f>
-        <v>13.714156756756756</v>
+        <v>23.443976887519259</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
         <f>$B$6 / Graphs!F10</f>
-        <v>12.814143603209875</v>
+        <v>20.123197734755053</v>
       </c>
       <c r="J10">
         <f>$B$7 / Graphs!G10</f>
-        <v>13.530105664263646</v>
+        <v>23.652783333333335</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -15536,22 +16639,22 @@
       </c>
       <c r="E11">
         <f>$B$2 / Graphs!B11</f>
-        <v>16.19672517353322</v>
+        <v>19.901963735606344</v>
       </c>
       <c r="F11">
         <f>$B$3 / Graphs!C11</f>
-        <v>16.95179732739421</v>
+        <v>23.371952380952379</v>
       </c>
       <c r="H11">
         <v>48</v>
       </c>
       <c r="I11">
         <f>$B$6 / Graphs!F11</f>
-        <v>15.85125538040975</v>
+        <v>20.137312351593472</v>
       </c>
       <c r="J11">
         <f>$B$7 / Graphs!G11</f>
-        <v>17.119797498045347</v>
+        <v>23.644216588192684</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -15560,22 +16663,22 @@
       </c>
       <c r="E12">
         <f>$B$2 / Graphs!B12</f>
-        <v>18.127287479636912</v>
+        <v>19.877058747276507</v>
       </c>
       <c r="F12">
         <f>$B$3 / Graphs!C12</f>
-        <v>18.51911678832117</v>
+        <v>23.300369065849921</v>
       </c>
       <c r="H12">
         <v>64</v>
       </c>
       <c r="I12">
         <f>$B$6 / Graphs!F12</f>
-        <v>17.870343088477036</v>
+        <v>20.122262019266845</v>
       </c>
       <c r="J12">
         <f>$B$7 / Graphs!G12</f>
-        <v>19.15679877515311</v>
+        <v>23.652783333333335</v>
       </c>
     </row>
   </sheetData>
@@ -15589,7 +16692,7 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Go/results go.xlsx
+++ b/Go/results go.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxkb\OneDrive\Documents\Uni\Year 4\DPT\DPT-coursework\Go\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{6D8AE7A7-A814-452C-9090-8F2205533DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D80AF75-8538-4884-948E-A0E65A059F08}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{6D8AE7A7-A814-452C-9090-8F2205533DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99F4678E-8D02-48A4-8386-5CB7485DF18A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4583,10 +4583,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Performance Tuning'!$C$3:$C$12</c:f>
+              <c:f>'Performance Tuning'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>69.294019246000005</c:v>
                 </c:pt>
@@ -4610,22 +4610,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.3235568109999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.303559549</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8173201890000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Performance Tuning'!$B$3:$B$12</c:f>
+              <c:f>'Performance Tuning'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4649,12 +4643,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4706,10 +4694,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Performance Tuning'!$D$3:$D$12</c:f>
+              <c:f>'Performance Tuning'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>76.918487597999999</c:v>
                 </c:pt>
@@ -4733,22 +4721,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.3952723389999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.388085486</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.3845105489999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Performance Tuning'!$B$3:$B$12</c:f>
+              <c:f>'Performance Tuning'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4772,12 +4754,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5225,10 +5201,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Performance Tuning'!$C$16:$C$25</c:f>
+              <c:f>'Performance Tuning'!$C$16:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>71.704999999999998</c:v>
                 </c:pt>
@@ -5252,22 +5228,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.8550000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4289999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Performance Tuning'!$B$16:$B$25</c:f>
+              <c:f>'Performance Tuning'!$B$16:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5291,12 +5261,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5348,10 +5312,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Performance Tuning'!$D$16:$D$25</c:f>
+              <c:f>'Performance Tuning'!$D$16:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>65.084999999999994</c:v>
                 </c:pt>
@@ -5374,12 +5338,6 @@
                   <c:v>3.399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.76</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7610000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>2.76</c:v>
                 </c:pt>
               </c:numCache>
@@ -5387,10 +5345,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Performance Tuning'!$B$16:$B$25</c:f>
+              <c:f>'Performance Tuning'!$B$16:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5414,12 +5372,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>

--- a/Go/results go.xlsx
+++ b/Go/results go.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxkb\OneDrive\Documents\Uni\Year 4\DPT\DPT-coursework\Go\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{6D8AE7A7-A814-452C-9090-8F2205533DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99F4678E-8D02-48A4-8386-5CB7485DF18A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685401B-2C3A-493F-AD69-4CD0E71F5802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="5610" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results go" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="45">
   <si>
     <t>dataset</t>
   </si>
@@ -158,12 +158,21 @@
   <si>
     <t>OpenMP DS2</t>
   </si>
+  <si>
+    <t>Erlang</t>
+  </si>
+  <si>
+    <t>Sequential Erlang</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +303,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -640,8 +656,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -739,7 +756,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Go vs OpenMP Execution Time</a:t>
+              <a:t> Go vs OpenMP vs Erlang Execution Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -820,6 +837,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.355375959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0661467580000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7405792340000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4612415419999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6475619239999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.264212785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97284453199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80052979300000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80169590800000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80270039400000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -853,45 +909,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>16.355375959</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0661467580000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7405792340000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4612415419999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6475619239999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.264212785</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97284453199999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80052979300000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80169590800000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.80270039400000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,6 +960,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -976,45 +1032,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>15.170999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9729999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3759999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0409999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,6 +1040,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39D5-4B8F-9CE3-4232313EA1E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27.643243999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.842316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.903312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6745109999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1556680000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8414100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7114829999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.310508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1547100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8771610000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-14EE-46E7-BE4A-DE97E8EE8217}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1081,7 +1221,7 @@
                   <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Number of Threads</a:t>
+                  <a:t>Median Runtime(s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1000">
                   <a:effectLst/>
@@ -1201,13 +1341,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Median</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Runtime (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1396,7 +1531,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Go vs OpenMP Execution Time</a:t>
+              <a:t> Go vs OpenMP vs Erlang Execution Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1477,6 +1612,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69.912270863000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.368107610999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.064803259000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.406590813999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9416794399999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2270355249999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0979035460000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.376901384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3745344510000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.377058415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1510,45 +1684,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$F$3:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>69.912270863000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38.368107610999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.064803259000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.406590813999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9416794399999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2270355249999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0979035460000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.376901384</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3745344510000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.377058415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,6 +1735,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.084999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.561999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.042000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8390000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1633,45 +1807,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$G$3:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>65.084999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.561999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.042000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.8390000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.76</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7610000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,6 +1815,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9412-4402-8044-17A977A41EBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>117.767549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.972942000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.275478999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.341128000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.141628999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.746213999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.129220999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5707269999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9244919999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1972329999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69A9-42CC-A2D1-533ECBDE1199}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1738,7 +1996,7 @@
                   <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Number of Threads</a:t>
+                  <a:t>Median Runtime (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1000">
                   <a:effectLst/>
@@ -1858,11 +2116,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Median</a:t>
+                  <a:t>Number of</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Runtime (s)</a:t>
+                  <a:t> Threads</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -2053,7 +2311,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Go vs OpenMP Execution Time</a:t>
+              <a:t> Go vs OpenMP vs Erlang Execution Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2134,6 +2392,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43.908420771999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.003493661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.206003402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.205709568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$I$3:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2149,27 +2428,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$J$3:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>43.908420771999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.003493661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.206003402</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.205709568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,6 +2479,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37.725000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$I$3:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2236,27 +2515,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$K$3:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>37.725000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.741</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,6 +2523,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-202D-4DB5-875F-7C762392A130}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129.50238899999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.370891999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.371085999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.137900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89AE-4AAF-B861-342326B177F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2323,7 +2668,7 @@
                   <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Number of Threads</a:t>
+                  <a:t>Median Runtime (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1000">
                   <a:effectLst/>
@@ -2443,13 +2788,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Median</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Runtime (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2638,7 +2978,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> vs C+OpenMP Absolute Speedup</a:t>
+              <a:t> vs C+OpenMP vs Erlang Absolute Speedup</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2922,6 +3262,240 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE25-4E92-84EE-126591579FF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.99699991795463661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2617852429202105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1359099121217873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5911489344402532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3456335823020407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1745301855308332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.164294594507878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.928247813900667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.790729146845747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.681911674065249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9992-4B0E-861D-676651A3D184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9992-4B0E-861D-676651A3D184}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3572,6 +4146,240 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0094327428008203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3212685653871361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1124372837412899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7930485463063102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6229545982478459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0988236505278159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8009938148542286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.421043876813121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.001393149239094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.517239333504975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6809-410B-9901-E897EA9F8296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$A$16:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6809-410B-9901-E897EA9F8296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4144,6 +4952,180 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-03AA-4F03-B1A4-73F2007B51A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedups!$O$3:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.8296174443546369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1491744404843462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.704788685378515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.431767725955957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedups!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-562B-458B-9D35-624E0F590711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedups!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Speedups!$A$16,Speedups!$A$19,Speedups!$A$21,Speedups!$A$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Speedups!$A$16,Speedups!$A$19,Speedups!$A$21,Speedups!$A$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-562B-458B-9D35-624E0F590711}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15964,15 +16946,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2401614-BA96-48EB-BC57-655DFAADC499}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -15983,7 +16965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -15993,6 +16975,9 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -16002,6 +16987,9 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
@@ -16011,8 +16999,11 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16022,6 +17013,9 @@
       <c r="C3">
         <v>15.170999999999999</v>
       </c>
+      <c r="D3">
+        <v>27.643243999999999</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -16031,6 +17025,9 @@
       <c r="G3">
         <v>65.084999999999994</v>
       </c>
+      <c r="H3">
+        <v>117.767549</v>
+      </c>
       <c r="I3">
         <v>8</v>
       </c>
@@ -16040,8 +17037,11 @@
       <c r="K3">
         <v>37.725000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>129.50238899999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16051,6 +17051,9 @@
       <c r="C4">
         <v>7.5919999999999996</v>
       </c>
+      <c r="D4">
+        <v>21.842316</v>
+      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -16060,6 +17063,9 @@
       <c r="G4">
         <v>32.561999999999998</v>
       </c>
+      <c r="H4">
+        <v>89.972942000000003</v>
+      </c>
       <c r="I4">
         <v>16</v>
       </c>
@@ -16069,8 +17075,11 @@
       <c r="K4">
         <v>18.89</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>69.370891999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16080,6 +17089,9 @@
       <c r="C5">
         <v>3.9729999999999999</v>
       </c>
+      <c r="D5">
+        <v>12.903312</v>
+      </c>
       <c r="E5">
         <v>4</v>
       </c>
@@ -16089,6 +17101,9 @@
       <c r="G5">
         <v>17.042000000000002</v>
       </c>
+      <c r="H5">
+        <v>56.275478999999997</v>
+      </c>
       <c r="I5">
         <v>32</v>
       </c>
@@ -16098,8 +17113,11 @@
       <c r="K5">
         <v>11.741</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>42.371085999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
@@ -16109,6 +17127,9 @@
       <c r="C6">
         <v>2.06</v>
       </c>
+      <c r="D6">
+        <v>7.6745109999999999</v>
+      </c>
       <c r="E6">
         <v>8</v>
       </c>
@@ -16118,6 +17139,9 @@
       <c r="G6">
         <v>8.8390000000000004</v>
       </c>
+      <c r="H6">
+        <v>31.341128000000001</v>
+      </c>
       <c r="I6">
         <v>64</v>
       </c>
@@ -16127,8 +17151,11 @@
       <c r="K6">
         <v>11.741</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>32.137900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>12</v>
       </c>
@@ -16138,6 +17165,9 @@
       <c r="C7">
         <v>1.3759999999999999</v>
       </c>
+      <c r="D7">
+        <v>5.1556680000000004</v>
+      </c>
       <c r="E7">
         <v>12</v>
       </c>
@@ -16147,8 +17177,11 @@
       <c r="G7">
         <v>5.8940000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>21.141628999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>16</v>
       </c>
@@ -16158,6 +17191,9 @@
       <c r="C8">
         <v>1.0409999999999999</v>
       </c>
+      <c r="D8">
+        <v>3.8414100000000002</v>
+      </c>
       <c r="E8">
         <v>16</v>
       </c>
@@ -16167,8 +17203,11 @@
       <c r="G8">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>16.746213999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>24</v>
       </c>
@@ -16178,6 +17217,9 @@
       <c r="C9">
         <v>0.79500000000000004</v>
       </c>
+      <c r="D9">
+        <v>2.7114829999999999</v>
+      </c>
       <c r="E9">
         <v>24</v>
       </c>
@@ -16187,8 +17229,11 @@
       <c r="G9">
         <v>3.399</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>12.129220999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>32</v>
       </c>
@@ -16198,6 +17243,9 @@
       <c r="C10">
         <v>0.64900000000000002</v>
       </c>
+      <c r="D10">
+        <v>2.310508</v>
+      </c>
       <c r="E10">
         <v>32</v>
       </c>
@@ -16207,8 +17255,11 @@
       <c r="G10">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>9.5707269999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>48</v>
       </c>
@@ -16218,6 +17269,9 @@
       <c r="C11">
         <v>0.65100000000000002</v>
       </c>
+      <c r="D11">
+        <v>2.1547100000000001</v>
+      </c>
       <c r="E11">
         <v>48</v>
       </c>
@@ -16227,8 +17281,11 @@
       <c r="G11">
         <v>2.7610000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>7.9244919999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>64</v>
       </c>
@@ -16238,6 +17295,9 @@
       <c r="C12">
         <v>0.65300000000000002</v>
       </c>
+      <c r="D12">
+        <v>1.8771610000000001</v>
+      </c>
       <c r="E12">
         <v>64</v>
       </c>
@@ -16247,19 +17307,23 @@
       <c r="G12">
         <v>2.76</v>
       </c>
+      <c r="H12">
+        <v>7.1972329999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59CA81-405D-412E-90F4-9035DC10537A}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16267,7 +17331,7 @@
     <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -16278,7 +17342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -16294,6 +17358,9 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
@@ -16303,6 +17370,9 @@
       <c r="J2" t="s">
         <v>24</v>
       </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
       <c r="L2" t="s">
         <v>25</v>
       </c>
@@ -16312,8 +17382,11 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -16331,6 +17404,10 @@
         <f>$B$3 / Graphs!C3</f>
         <v>1.0029095643003099</v>
       </c>
+      <c r="G3">
+        <f>$B$4 / Graphs!D3</f>
+        <v>0.99699991795463661</v>
+      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -16342,6 +17419,10 @@
         <f>$B$7 / Graphs!G3</f>
         <v>1.0030219251747716</v>
       </c>
+      <c r="K3">
+        <f>$B$8 / Graphs!H3</f>
+        <v>1.0094327428008203</v>
+      </c>
       <c r="L3">
         <v>8</v>
       </c>
@@ -16353,8 +17434,18 @@
         <f>$B$11 / Graphs!K3</f>
         <v>7.3845195493704443</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3">
+        <f>$B$12 / Graphs!L3</f>
+        <v>3.8296174443546369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27.560312</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -16366,6 +17457,10 @@
         <f>$B$3 / Graphs!C4</f>
         <v>2.0041018177028449</v>
       </c>
+      <c r="G4">
+        <f>$B$4 / Graphs!D4</f>
+        <v>1.2617852429202105</v>
+      </c>
       <c r="H4">
         <v>2</v>
       </c>
@@ -16377,6 +17472,10 @@
         <f>$B$7 / Graphs!G4</f>
         <v>2.0048425158159819</v>
       </c>
+      <c r="K4">
+        <f>$B$8 / Graphs!H4</f>
+        <v>1.3212685653871361</v>
+      </c>
       <c r="L4">
         <v>16</v>
       </c>
@@ -16388,8 +17487,12 @@
         <f>$B$11 / Graphs!K4</f>
         <v>14.747538380095289</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4">
+        <f>$B$12 / Graphs!L4</f>
+        <v>7.1491744404843462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -16404,6 +17507,10 @@
         <f>$B$3 / Graphs!C5</f>
         <v>3.8296352881953184</v>
       </c>
+      <c r="G5">
+        <f>$B$4 / Graphs!D5</f>
+        <v>2.1359099121217873</v>
+      </c>
       <c r="H5">
         <v>4</v>
       </c>
@@ -16415,6 +17522,10 @@
         <f>$B$7 / Graphs!G5</f>
         <v>3.8306350193639243</v>
       </c>
+      <c r="K5">
+        <f>$B$8 / Graphs!H5</f>
+        <v>2.1124372837412899</v>
+      </c>
       <c r="L5">
         <v>32</v>
       </c>
@@ -16426,8 +17537,12 @@
         <f>$B$11 / Graphs!K5</f>
         <v>23.727195298526532</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <f>$B$12 / Graphs!L5</f>
+        <v>11.704788685378515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -16445,6 +17560,10 @@
         <f>$B$3 / Graphs!C6</f>
         <v>7.3859907766990283</v>
       </c>
+      <c r="G6">
+        <f>$B$4 / Graphs!D6</f>
+        <v>3.5911489344402532</v>
+      </c>
       <c r="H6">
         <v>8</v>
       </c>
@@ -16456,6 +17575,10 @@
         <f>$B$7 / Graphs!G6</f>
         <v>7.3856411358750993</v>
       </c>
+      <c r="K6">
+        <f>$B$8 / Graphs!H6</f>
+        <v>3.7930485463063102</v>
+      </c>
       <c r="L6">
         <v>64</v>
       </c>
@@ -16467,8 +17590,12 @@
         <f>$B$11 / Graphs!K6</f>
         <v>23.727195298526532</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6">
+        <f>$B$12 / Graphs!L6</f>
+        <v>15.431767725955957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -16486,6 +17613,10 @@
         <f>$B$3 / Graphs!C7</f>
         <v>11.057515261627907</v>
       </c>
+      <c r="G7">
+        <f>$B$4 / Graphs!D7</f>
+        <v>5.3456335823020407</v>
+      </c>
       <c r="H7">
         <v>12</v>
       </c>
@@ -16497,8 +17628,18 @@
         <f>$B$7 / Graphs!G7</f>
         <v>11.075955548014932</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <f>$B$8 / Graphs!H7</f>
+        <v>5.6229545982478459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1">
+        <v>118.87842000000001</v>
+      </c>
       <c r="D8">
         <v>16</v>
       </c>
@@ -16510,6 +17651,10 @@
         <f>$B$3 / Graphs!C8</f>
         <v>14.615889529298752</v>
       </c>
+      <c r="G8">
+        <f>$B$4 / Graphs!D8</f>
+        <v>7.1745301855308332</v>
+      </c>
       <c r="H8">
         <v>16</v>
       </c>
@@ -16521,8 +17666,12 @@
         <f>$B$7 / Graphs!G8</f>
         <v>14.736271331828444</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <f>$B$8 / Graphs!H8</f>
+        <v>7.0988236505278159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -16537,6 +17686,10 @@
         <f>$B$3 / Graphs!C9</f>
         <v>19.138542138364777</v>
       </c>
+      <c r="G9">
+        <f>$B$4 / Graphs!D9</f>
+        <v>10.164294594507878</v>
+      </c>
       <c r="H9">
         <v>24</v>
       </c>
@@ -16548,8 +17701,12 @@
         <f>$B$7 / Graphs!G9</f>
         <v>19.206143571638719</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <f>$B$8 / Graphs!H9</f>
+        <v>9.8009938148542286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -16567,6 +17724,10 @@
         <f>$B$3 / Graphs!C10</f>
         <v>23.443976887519259</v>
       </c>
+      <c r="G10">
+        <f>$B$4 / Graphs!D10</f>
+        <v>11.928247813900667</v>
+      </c>
       <c r="H10">
         <v>32</v>
       </c>
@@ -16578,8 +17739,12 @@
         <f>$B$7 / Graphs!G10</f>
         <v>23.652783333333335</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <f>$B$8 / Graphs!H10</f>
+        <v>12.421043876813121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -16597,6 +17762,10 @@
         <f>$B$3 / Graphs!C11</f>
         <v>23.371952380952379</v>
       </c>
+      <c r="G11">
+        <f>$B$4 / Graphs!D11</f>
+        <v>12.790729146845747</v>
+      </c>
       <c r="H11">
         <v>48</v>
       </c>
@@ -16608,8 +17777,18 @@
         <f>$B$7 / Graphs!G11</f>
         <v>23.644216588192684</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <f>$B$8 / Graphs!H11</f>
+        <v>15.001393149239094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>495.94460800000002</v>
+      </c>
       <c r="D12">
         <v>64</v>
       </c>
@@ -16621,6 +17800,10 @@
         <f>$B$3 / Graphs!C12</f>
         <v>23.300369065849921</v>
       </c>
+      <c r="G12">
+        <f>$B$4 / Graphs!D12</f>
+        <v>14.681911674065249</v>
+      </c>
       <c r="H12">
         <v>64</v>
       </c>
@@ -16631,6 +17814,65 @@
       <c r="J12">
         <f>$B$7 / Graphs!G12</f>
         <v>23.652783333333335</v>
+      </c>
+      <c r="K12">
+        <f>$B$8 / Graphs!H12</f>
+        <v>16.517239333504975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -16643,7 +17885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B31564-144C-4844-89A5-1F6BF44FC46A}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>

--- a/Go/results go.xlsx
+++ b/Go/results go.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxkb\OneDrive\Documents\Uni\Year 4\DPT\DPT-coursework\Go\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685401B-2C3A-493F-AD69-4CD0E71F5802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721B3125-D7FF-4AD1-A8BE-F72B46F3781B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="5610" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="5550" windowWidth="28800" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results go" sheetId="1" r:id="rId1"/>
@@ -837,6 +837,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -870,45 +909,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.80270039400000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,6 +960,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -993,45 +1032,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.65300000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,6 +1083,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1116,45 +1155,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.8771610000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,7 +1221,7 @@
                   <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Median Runtime(s)</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1000">
                   <a:effectLst/>
@@ -1340,9 +1340,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Threads</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Median Runtime(s)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1612,6 +1617,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1645,45 +1689,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.377058415</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$E$3:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,6 +1740,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1768,45 +1812,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$E$3:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,6 +1863,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1891,45 +1935,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.1972329999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$E$3:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,7 +2001,7 @@
                   <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Median Runtime (s)</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1000">
                   <a:effectLst/>
@@ -2115,14 +2120,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Median Runtime (s)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2392,6 +2397,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$J$3:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2407,27 +2433,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.205709568</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$I$3:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,6 +2484,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$K$3:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2494,27 +2520,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.741</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$I$3:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,6 +2571,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Graphs!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Graphs!$L$3:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2581,27 +2607,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32.137900000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Graphs!$I$3:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,7 +2673,7 @@
                   <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Median Runtime (s)</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1000">
                   <a:effectLst/>
@@ -2787,9 +2792,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Threads</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Median Runtime (s)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3059,6 +3069,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3092,45 +3141,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.877058747276507</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,6 +3192,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3215,45 +3264,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>23.300369065849921</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3305,6 +3315,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3338,45 +3387,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>14.681911674065249</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,10 +3438,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Speedups!$A$16:$A$23</c:f>
+              <c:f>Speedups!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3455,16 +3465,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Speedups!$A$16:$A$23</c:f>
+              <c:f>Speedups!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3488,6 +3504,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,9 +3573,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Speedup</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3669,7 +3696,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number of Threads</a:t>
+                  <a:t>Absolute Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3859,7 +3886,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> vs C+OpenMP Absolute Speedup</a:t>
+              <a:t> vs C+OpenMP vs Erlang Absolute Speedup</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3940,6 +3967,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3973,45 +4039,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.122262019266845</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$H$3:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,6 +4090,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$J$3:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4096,45 +4162,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>23.652783333333335</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$H$3:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4186,6 +4213,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4219,45 +4285,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16.517239333504975</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$H$3:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4309,10 +4336,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Speedups!$A$16:$A$23</c:f>
+              <c:f>Speedups!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4336,16 +4363,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Speedups!$A$16:$A$23</c:f>
+              <c:f>Speedups!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4369,6 +4402,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,9 +4471,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Speedup</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4549,9 +4593,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Threads</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Absolute Speedup</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4740,7 +4789,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> vs C+OpenMP Absolute Speedup</a:t>
+              <a:t> vs C+OpenMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> vs Erlang</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Absolute Speedup</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -4821,6 +4880,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$M$3:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4836,27 +4916,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.733962046041459</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$L$3:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,6 +4967,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$N$3:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4923,27 +5003,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23.727195298526532</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$L$3:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4995,6 +5054,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Speedups!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Speedups!$O$3:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -5010,27 +5090,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15.431767725955957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Speedups!$L$3:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5082,42 +5141,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Speedups!$A$16,Speedups!$A$19,Speedups!$A$21,Speedups!$A$23)</c:f>
+              <c:f>(Speedups!$A$19,Speedups!$A$21,Speedups!$A$23,Speedups!$A$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Speedups!$A$16,Speedups!$A$19,Speedups!$A$21,Speedups!$A$23)</c:f>
+              <c:f>(Speedups!$A$19,Speedups!$A$21,Speedups!$A$23,Speedups!$A$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,9 +5240,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Speedup</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5298,9 +5362,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Threads</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Absolute Speedup</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -16948,7 +17017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2401614-BA96-48EB-BC57-655DFAADC499}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
@@ -17322,8 +17391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59CA81-405D-412E-90F4-9035DC10537A}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
